--- a/aosd_2014/article_v1/graphs.xlsx
+++ b/aosd_2014/article_v1/graphs.xlsx
@@ -554,11 +554,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="84">
+  <cellStyleXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -670,7 +672,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="84">
+  <cellStyles count="86">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -712,6 +714,7 @@
     <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -753,6 +756,7 @@
     <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3"/>
   </cellStyles>
@@ -15703,11 +15707,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2119460952"/>
-        <c:axId val="2119454040"/>
+        <c:axId val="2063638856"/>
+        <c:axId val="2063629992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2119460952"/>
+        <c:axId val="2063638856"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -15730,7 +15734,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -15747,14 +15750,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2119454040"/>
+        <c:crossAx val="2063629992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="8.0"/>
         <c:minorUnit val="4.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2119454040"/>
+        <c:axId val="2063629992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -15775,7 +15778,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2119460952"/>
+        <c:crossAx val="2063638856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -15969,11 +15972,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="2107180648"/>
-        <c:axId val="2107183816"/>
+        <c:axId val="2066199400"/>
+        <c:axId val="2066200968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2107180648"/>
+        <c:axId val="2066199400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15992,7 +15995,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2107183816"/>
+        <c:crossAx val="2066200968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16000,7 +16003,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2107183816"/>
+        <c:axId val="2066200968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16041,7 +16044,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2107180648"/>
+        <c:crossAx val="2066199400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -16223,11 +16226,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="200"/>
-        <c:axId val="2106886648"/>
-        <c:axId val="2106876792"/>
+        <c:axId val="2066267448"/>
+        <c:axId val="2066272968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2106886648"/>
+        <c:axId val="2066267448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16249,14 +16252,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2106876792"/>
+        <c:crossAx val="2066272968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16264,7 +16266,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2106876792"/>
+        <c:axId val="2066272968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16287,14 +16289,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2106886648"/>
+        <c:crossAx val="2066267448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16474,11 +16475,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="200"/>
-        <c:axId val="2106750952"/>
-        <c:axId val="2106706488"/>
+        <c:axId val="2066324104"/>
+        <c:axId val="2066329624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2106750952"/>
+        <c:axId val="2066324104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16506,7 +16507,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2106706488"/>
+        <c:crossAx val="2066329624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16514,7 +16515,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2106706488"/>
+        <c:axId val="2066329624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -16545,7 +16546,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2106750952"/>
+        <c:crossAx val="2066324104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -16726,11 +16727,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="200"/>
-        <c:axId val="2106620600"/>
-        <c:axId val="2106626168"/>
+        <c:axId val="2066378568"/>
+        <c:axId val="2066384072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2106620600"/>
+        <c:axId val="2066378568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16752,14 +16753,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2106626168"/>
+        <c:crossAx val="2066384072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16767,7 +16767,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2106626168"/>
+        <c:axId val="2066384072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -16792,14 +16792,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2106620600"/>
+        <c:crossAx val="2066378568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -16980,11 +16979,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="200"/>
-        <c:axId val="2109365560"/>
-        <c:axId val="2109347608"/>
+        <c:axId val="2066429656"/>
+        <c:axId val="2066435160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2109365560"/>
+        <c:axId val="2066429656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17006,14 +17005,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109347608"/>
+        <c:crossAx val="2066435160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17021,7 +17019,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2109347608"/>
+        <c:axId val="2066435160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -17046,14 +17044,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109365560"/>
+        <c:crossAx val="2066429656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -17127,7 +17124,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -17304,11 +17300,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2109280632"/>
-        <c:axId val="2109283016"/>
+        <c:axId val="2066485192"/>
+        <c:axId val="2066487224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2109280632"/>
+        <c:axId val="2066485192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17317,7 +17313,7 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109283016"/>
+        <c:crossAx val="2066487224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17325,7 +17321,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2109283016"/>
+        <c:axId val="2066487224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17349,7 +17345,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
@@ -17376,14 +17371,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2109280632"/>
+        <c:crossAx val="2066485192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -17567,11 +17561,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="2109253144"/>
-        <c:axId val="2109219448"/>
+        <c:axId val="2066526872"/>
+        <c:axId val="2066528360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2109253144"/>
+        <c:axId val="2066526872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17590,7 +17584,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2109219448"/>
+        <c:crossAx val="2066528360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17598,7 +17592,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2109219448"/>
+        <c:axId val="2066528360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17639,7 +17633,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2109253144"/>
+        <c:crossAx val="2066526872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -17836,11 +17830,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="2109165592"/>
-        <c:axId val="2109168840"/>
+        <c:axId val="2065411128"/>
+        <c:axId val="2065412616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2109165592"/>
+        <c:axId val="2065411128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17859,7 +17853,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2109168840"/>
+        <c:crossAx val="2065412616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17867,7 +17861,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2109168840"/>
+        <c:axId val="2065412616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17908,7 +17902,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2109165592"/>
+        <c:crossAx val="2065411128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -18057,11 +18051,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="75"/>
-        <c:axId val="2109204536"/>
-        <c:axId val="2109207880"/>
+        <c:axId val="2066565400"/>
+        <c:axId val="2066567512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2109204536"/>
+        <c:axId val="2066565400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18080,7 +18074,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2109207880"/>
+        <c:crossAx val="2066567512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18088,7 +18082,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2109207880"/>
+        <c:axId val="2066567512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.45"/>
@@ -18131,7 +18125,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2109204536"/>
+        <c:crossAx val="2066565400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18261,11 +18255,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="200"/>
-        <c:axId val="2141777096"/>
-        <c:axId val="2141778856"/>
+        <c:axId val="2066630136"/>
+        <c:axId val="2066635912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2141777096"/>
+        <c:axId val="2066630136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18306,7 +18300,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2141778856"/>
+        <c:crossAx val="2066635912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18314,7 +18308,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2141778856"/>
+        <c:axId val="2066635912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -18339,14 +18333,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2141777096"/>
+        <c:crossAx val="2066630136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -18479,11 +18472,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2119387448"/>
-        <c:axId val="2119384392"/>
+        <c:axId val="2065793352"/>
+        <c:axId val="2065796392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2119387448"/>
+        <c:axId val="2065793352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18502,7 +18495,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2119384392"/>
+        <c:crossAx val="2065796392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18510,7 +18503,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2119384392"/>
+        <c:axId val="2065796392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18531,7 +18524,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2119387448"/>
+        <c:crossAx val="2065793352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18593,9 +18586,6 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
             <a:ln w="47625">
               <a:noFill/>
             </a:ln>
@@ -19860,11 +19850,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2124575560"/>
-        <c:axId val="2143580008"/>
+        <c:axId val="2065647000"/>
+        <c:axId val="2065654280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2124575560"/>
+        <c:axId val="2065647000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="210.0"/>
@@ -19905,12 +19895,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2143580008"/>
+        <c:crossAx val="2065654280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2143580008"/>
+        <c:axId val="2065654280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -19952,7 +19942,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2124575560"/>
+        <c:crossAx val="2065647000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.5"/>
@@ -20093,11 +20083,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2119237704"/>
-        <c:axId val="2119234648"/>
+        <c:axId val="2065904264"/>
+        <c:axId val="2065907304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2119237704"/>
+        <c:axId val="2065904264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20116,7 +20106,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2119234648"/>
+        <c:crossAx val="2065907304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -20124,7 +20114,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2119234648"/>
+        <c:axId val="2065907304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20145,7 +20135,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2119237704"/>
+        <c:crossAx val="2065904264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20587,11 +20577,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2119198440"/>
-        <c:axId val="2119190216"/>
+        <c:axId val="2065943352"/>
+        <c:axId val="2065951736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2119198440"/>
+        <c:axId val="2065943352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60.0"/>
@@ -20630,14 +20620,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2119190216"/>
+        <c:crossAx val="2065951736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="6.0"/>
         <c:minorUnit val="4.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2119190216"/>
+        <c:axId val="2065951736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -20658,7 +20648,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2119198440"/>
+        <c:crossAx val="2065943352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -20878,11 +20868,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="2107275816"/>
-        <c:axId val="2107606168"/>
+        <c:axId val="2065996808"/>
+        <c:axId val="2065998296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2107275816"/>
+        <c:axId val="2065996808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20901,7 +20891,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2107606168"/>
+        <c:crossAx val="2065998296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -20909,7 +20899,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2107606168"/>
+        <c:axId val="2065998296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20950,7 +20940,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2107275816"/>
+        <c:crossAx val="2065996808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -21296,11 +21286,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2107364152"/>
-        <c:axId val="2107262952"/>
+        <c:axId val="2066047416"/>
+        <c:axId val="2066049464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2107364152"/>
+        <c:axId val="2066047416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21309,7 +21299,7 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107262952"/>
+        <c:crossAx val="2066049464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -21317,7 +21307,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2107262952"/>
+        <c:axId val="2066049464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21367,7 +21357,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2107364152"/>
+        <c:crossAx val="2066047416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21569,11 +21559,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="2119172344"/>
-        <c:axId val="2107612008"/>
+        <c:axId val="2066088248"/>
+        <c:axId val="2066089736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2119172344"/>
+        <c:axId val="2066088248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21592,7 +21582,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2107612008"/>
+        <c:crossAx val="2066089736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -21600,7 +21590,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2107612008"/>
+        <c:axId val="2066089736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21641,7 +21631,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2119172344"/>
+        <c:crossAx val="2066088248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -21850,11 +21840,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="2107372648"/>
-        <c:axId val="2107356504"/>
+        <c:axId val="2066124952"/>
+        <c:axId val="2066126440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2107372648"/>
+        <c:axId val="2066124952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21873,7 +21863,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2107356504"/>
+        <c:crossAx val="2066126440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -21881,7 +21871,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2107356504"/>
+        <c:axId val="2066126440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21922,7 +21912,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2107372648"/>
+        <c:crossAx val="2066124952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -22131,11 +22121,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="2107236296"/>
-        <c:axId val="2107239464"/>
+        <c:axId val="2066161800"/>
+        <c:axId val="2066163288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2107236296"/>
+        <c:axId val="2066161800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22154,7 +22144,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2107239464"/>
+        <c:crossAx val="2066163288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -22162,7 +22152,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2107239464"/>
+        <c:axId val="2066163288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22203,7 +22193,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2107236296"/>
+        <c:crossAx val="2066161800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -43877,7 +43867,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -43892,7 +43881,7 @@
   <dimension ref="A1:I203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M46" sqref="M46"/>
+      <selection activeCell="D1" sqref="D1:D203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -43911,6 +43900,10 @@
       <c r="C1">
         <v>-1</v>
       </c>
+      <c r="D1">
+        <f>-1*C1</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
@@ -43923,6 +43916,10 @@
       <c r="C2">
         <v>-1</v>
       </c>
+      <c r="D2">
+        <f t="shared" ref="D2:D65" si="1">-1*C2</f>
+        <v>1</v>
+      </c>
       <c r="E2" t="s">
         <v>126</v>
       </c>
@@ -43938,6 +43935,10 @@
       <c r="C3">
         <v>-0.94868329805051299</v>
       </c>
+      <c r="D3">
+        <f t="shared" si="1"/>
+        <v>0.94868329805051299</v>
+      </c>
       <c r="E3" t="s">
         <v>121</v>
       </c>
@@ -43965,6 +43966,10 @@
       <c r="C4">
         <v>-0.89442719099991597</v>
       </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>0.89442719099991597</v>
+      </c>
       <c r="E4">
         <v>0.22163039966390599</v>
       </c>
@@ -43992,6 +43997,10 @@
       <c r="C5">
         <v>-0.86602540378443804</v>
       </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>0.86602540378443804</v>
+      </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
@@ -44004,6 +44013,10 @@
       <c r="C6">
         <v>-0.811679449913427</v>
       </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>0.811679449913427</v>
+      </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
@@ -44016,6 +44029,10 @@
       <c r="C7">
         <v>-0.78262379212492605</v>
       </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>0.78262379212492605</v>
+      </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
@@ -44028,6 +44045,10 @@
       <c r="C8">
         <v>-0.78072005835882596</v>
       </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>0.78072005835882596</v>
+      </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
@@ -44040,6 +44061,10 @@
       <c r="C9">
         <v>-0.77459666924148296</v>
       </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>0.77459666924148296</v>
+      </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
@@ -44052,6 +44077,10 @@
       <c r="C10">
         <v>-0.77031909491656503</v>
       </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>0.77031909491656503</v>
+      </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
@@ -44064,6 +44093,10 @@
       <c r="C11">
         <v>-0.74870488592714501</v>
       </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>0.74870488592714501</v>
+      </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
@@ -44076,6 +44109,10 @@
       <c r="C12">
         <v>-0.69825325182675302</v>
       </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>0.69825325182675302</v>
+      </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
@@ -44088,6 +44125,10 @@
       <c r="C13">
         <v>-0.68627450980392102</v>
       </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>0.68627450980392102</v>
+      </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
@@ -44100,6 +44141,10 @@
       <c r="C14">
         <v>-0.63006191916193599</v>
       </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>0.63006191916193599</v>
+      </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15">
@@ -44112,6 +44157,10 @@
       <c r="C15">
         <v>-0.59299945332888004</v>
       </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>0.59299945332888004</v>
+      </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
@@ -44124,8 +44173,12 @@
       <c r="C16">
         <v>-0.58946988682607604</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>0.58946988682607604</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>17</v>
       </c>
@@ -44136,8 +44189,12 @@
       <c r="C17">
         <v>-0.56428809364683397</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>0.56428809364683397</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>18</v>
       </c>
@@ -44148,8 +44205,12 @@
       <c r="C18">
         <v>-0.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>19</v>
       </c>
@@ -44160,8 +44221,12 @@
       <c r="C19">
         <v>-0.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>20</v>
       </c>
@@ -44172,8 +44237,12 @@
       <c r="C20">
         <v>-0.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>21</v>
       </c>
@@ -44184,8 +44253,12 @@
       <c r="C21">
         <v>-0.487417436675953</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>0.487417436675953</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>22</v>
       </c>
@@ -44196,8 +44269,12 @@
       <c r="C22">
         <v>-0.47685255920550002</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>0.47685255920550002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>23</v>
       </c>
@@ -44208,8 +44285,12 @@
       <c r="C23">
         <v>-0.45046873134777898</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>0.45046873134777898</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>24</v>
       </c>
@@ -44220,8 +44301,12 @@
       <c r="C24">
         <v>-0.44721359549995798</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>0.44721359549995798</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>25</v>
       </c>
@@ -44232,8 +44317,12 @@
       <c r="C25">
         <v>-0.43915503282683899</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>0.43915503282683899</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>26</v>
       </c>
@@ -44244,8 +44333,12 @@
       <c r="C26">
         <v>-0.41778637429367399</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>0.41778637429367399</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>27</v>
       </c>
@@ -44256,8 +44349,12 @@
       <c r="C27">
         <v>-0.4</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>28</v>
       </c>
@@ -44268,8 +44365,12 @@
       <c r="C28">
         <v>-0.39999999999999902</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>0.39999999999999902</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>29</v>
       </c>
@@ -44280,8 +44381,12 @@
       <c r="C29">
         <v>-0.39999999999999902</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>0.39999999999999902</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>30</v>
       </c>
@@ -44292,8 +44397,12 @@
       <c r="C30">
         <v>-0.376851173174091</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>0.376851173174091</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>31</v>
       </c>
@@ -44304,8 +44413,12 @@
       <c r="C31">
         <v>-0.35634832254989901</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>0.35634832254989901</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>32</v>
       </c>
@@ -44316,8 +44429,12 @@
       <c r="C32">
         <v>-0.35355339059327301</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>0.35355339059327301</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>33</v>
       </c>
@@ -44328,8 +44445,12 @@
       <c r="C33">
         <v>-0.33494692265161702</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>0.33494692265161702</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>34</v>
       </c>
@@ -44340,8 +44461,12 @@
       <c r="C34">
         <v>-0.311798927039175</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>0.311798927039175</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>35</v>
       </c>
@@ -44352,8 +44477,12 @@
       <c r="C35">
         <v>-0.29940656547831401</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>0.29940656547831401</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>36</v>
       </c>
@@ -44364,8 +44493,12 @@
       <c r="C36">
         <v>-0.292303328057814</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>0.292303328057814</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>37</v>
       </c>
@@ -44376,8 +44509,12 @@
       <c r="C37">
         <v>-0.29092868272585598</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>0.29092868272585598</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>38</v>
       </c>
@@ -44388,8 +44525,12 @@
       <c r="C38">
         <v>-0.27386127875258298</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>0.27386127875258298</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>39</v>
       </c>
@@ -44400,8 +44541,12 @@
       <c r="C39">
         <v>-0.265079480991533</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39">
+        <f t="shared" si="1"/>
+        <v>0.265079480991533</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>40</v>
       </c>
@@ -44412,8 +44557,12 @@
       <c r="C40">
         <v>-0.25714285714285701</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40">
+        <f t="shared" si="1"/>
+        <v>0.25714285714285701</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>41</v>
       </c>
@@ -44424,8 +44573,12 @@
       <c r="C41">
         <v>-0.243975018237133</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41">
+        <f t="shared" si="1"/>
+        <v>0.243975018237133</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>42</v>
       </c>
@@ -44436,8 +44589,12 @@
       <c r="C42">
         <v>-0.229367451067991</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <f t="shared" si="1"/>
+        <v>0.229367451067991</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>43</v>
       </c>
@@ -44448,8 +44605,12 @@
       <c r="C43">
         <v>-0.21251185925162</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43">
+        <f t="shared" si="1"/>
+        <v>0.21251185925162</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>44</v>
       </c>
@@ -44460,8 +44621,12 @@
       <c r="C44">
         <v>-0.20519567041702999</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44">
+        <f t="shared" si="1"/>
+        <v>0.20519567041702999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>45</v>
       </c>
@@ -44472,8 +44637,12 @@
       <c r="C45">
         <v>-0.194477793976367</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <f t="shared" si="1"/>
+        <v>0.194477793976367</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46">
         <v>46</v>
       </c>
@@ -44484,8 +44653,12 @@
       <c r="C46">
         <v>-0.18342821387646299</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="D46">
+        <f t="shared" si="1"/>
+        <v>0.18342821387646299</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47">
         <v>47</v>
       </c>
@@ -44496,8 +44669,12 @@
       <c r="C47">
         <v>-0.17165448845607201</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="D47">
+        <f t="shared" si="1"/>
+        <v>0.17165448845607201</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48">
         <v>48</v>
       </c>
@@ -44508,8 +44685,12 @@
       <c r="C48">
         <v>-0.16951587590520201</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48">
+        <f t="shared" si="1"/>
+        <v>0.16951587590520201</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49">
         <v>49</v>
       </c>
@@ -44520,8 +44701,12 @@
       <c r="C49">
         <v>-0.164887544065348</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49">
+        <f t="shared" si="1"/>
+        <v>0.164887544065348</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50">
         <v>50</v>
       </c>
@@ -44532,8 +44717,12 @@
       <c r="C50">
         <v>-0.15389675281277199</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50">
+        <f t="shared" si="1"/>
+        <v>0.15389675281277199</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51">
         <v>51</v>
       </c>
@@ -44544,8 +44733,12 @@
       <c r="C51">
         <v>-0.152147483430769</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51">
+        <f t="shared" si="1"/>
+        <v>0.152147483430769</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52">
         <v>52</v>
       </c>
@@ -44556,8 +44749,12 @@
       <c r="C52">
         <v>-0.15179418517972901</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <f t="shared" si="1"/>
+        <v>0.15179418517972901</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53">
         <v>53</v>
       </c>
@@ -44568,8 +44765,12 @@
       <c r="C53">
         <v>-0.115300250271854</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="D53">
+        <f t="shared" si="1"/>
+        <v>0.115300250271854</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54">
         <v>54</v>
       </c>
@@ -44580,8 +44781,12 @@
       <c r="C54">
         <v>-0.101709525543121</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="D54">
+        <f t="shared" si="1"/>
+        <v>0.101709525543121</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55">
         <v>55</v>
       </c>
@@ -44592,8 +44797,12 @@
       <c r="C55">
         <v>-8.5714285714286104E-2</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="D55">
+        <f t="shared" si="1"/>
+        <v>8.5714285714286104E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56">
         <v>56</v>
       </c>
@@ -44604,8 +44813,12 @@
       <c r="C56">
         <v>-8.4862512869552195E-2</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="D56">
+        <f t="shared" si="1"/>
+        <v>8.4862512869552195E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57">
         <v>57</v>
       </c>
@@ -44616,8 +44829,12 @@
       <c r="C57">
         <v>-7.9027720678408603E-2</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <f t="shared" si="1"/>
+        <v>7.9027720678408603E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58">
         <v>58</v>
       </c>
@@ -44628,8 +44845,12 @@
       <c r="C58">
         <v>-7.53144667880149E-2</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="D58">
+        <f t="shared" si="1"/>
+        <v>7.53144667880149E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59">
         <v>59</v>
       </c>
@@ -44640,8 +44861,12 @@
       <c r="C59">
         <v>-7.3192505471140104E-2</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="D59">
+        <f t="shared" si="1"/>
+        <v>7.3192505471140104E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60">
         <v>60</v>
       </c>
@@ -44652,8 +44877,12 @@
       <c r="C60">
         <v>-7.2727272727272502E-2</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="D60">
+        <f t="shared" si="1"/>
+        <v>7.2727272727272502E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61">
         <v>61</v>
       </c>
@@ -44664,8 +44893,12 @@
       <c r="C61">
         <v>-7.1428571428571494E-2</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="D61">
+        <f t="shared" si="1"/>
+        <v>7.1428571428571494E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62">
         <v>62</v>
       </c>
@@ -44676,8 +44909,12 @@
       <c r="C62">
         <v>-5.9881313095663198E-2</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="D62">
+        <f t="shared" si="1"/>
+        <v>5.9881313095663198E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63">
         <v>63</v>
       </c>
@@ -44688,8 +44925,12 @@
       <c r="C63">
         <v>-2.8571428571430298E-2</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="D63">
+        <f t="shared" si="1"/>
+        <v>2.8571428571430298E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64">
         <v>64</v>
       </c>
@@ -44700,8 +44941,12 @@
       <c r="C64">
         <v>-1.69515875905197E-2</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="D64">
+        <f t="shared" si="1"/>
+        <v>1.69515875905197E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65">
         <v>65</v>
       </c>
@@ -44712,1661 +44957,2217 @@
       <c r="C65">
         <v>-6.1354311913956903E-3</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="D65">
+        <f t="shared" si="1"/>
+        <v>6.1354311913956903E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66">
         <v>66</v>
       </c>
       <c r="B66" s="8">
-        <f t="shared" ref="B66:B129" si="1">A66/203</f>
+        <f t="shared" ref="B66:B129" si="2">A66/203</f>
         <v>0.3251231527093596</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="D66">
+        <f t="shared" ref="D66:D129" si="3">-1*C66</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67">
         <v>67</v>
       </c>
       <c r="B67" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.33004926108374383</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="D67">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68">
         <v>68</v>
       </c>
       <c r="B68" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.33497536945812806</v>
       </c>
       <c r="C68">
         <v>1.7921262068317099E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="D68">
+        <f t="shared" si="3"/>
+        <v>-1.7921262068317099E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69">
         <v>69</v>
       </c>
       <c r="B69" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.33990147783251229</v>
       </c>
       <c r="C69">
         <v>2.80210587335331E-2</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="D69">
+        <f t="shared" si="3"/>
+        <v>-2.80210587335331E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70">
         <v>70</v>
       </c>
       <c r="B70" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.34482758620689657</v>
       </c>
       <c r="C70">
         <v>4.2424242424243398E-2</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="D70">
+        <f t="shared" si="3"/>
+        <v>-4.2424242424243398E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71">
         <v>71</v>
       </c>
       <c r="B71" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.34975369458128081</v>
       </c>
       <c r="C71">
         <v>4.9544724391339001E-2</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="D71">
+        <f t="shared" si="3"/>
+        <v>-4.9544724391339001E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72">
         <v>72</v>
       </c>
       <c r="B72" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.35467980295566504</v>
       </c>
       <c r="C72">
         <v>5.7396402139484798E-2</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="D72">
+        <f t="shared" si="3"/>
+        <v>-5.7396402139484798E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73">
         <v>73</v>
       </c>
       <c r="B73" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.35960591133004927</v>
       </c>
       <c r="C73">
         <v>5.79771035652447E-2</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="D73">
+        <f t="shared" si="3"/>
+        <v>-5.79771035652447E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74">
         <v>74</v>
       </c>
       <c r="B74" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.3645320197044335</v>
       </c>
       <c r="C74">
         <v>7.1428571428571494E-2</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="D74">
+        <f t="shared" si="3"/>
+        <v>-7.1428571428571494E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75">
         <v>75</v>
       </c>
       <c r="B75" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.36945812807881773</v>
       </c>
       <c r="C75">
         <v>8.5106776115209004E-2</v>
       </c>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="D75">
+        <f t="shared" si="3"/>
+        <v>-8.5106776115209004E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76">
         <v>76</v>
       </c>
       <c r="B76" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.37438423645320196</v>
       </c>
       <c r="C76">
         <v>8.6758895345672701E-2</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76">
+        <f t="shared" si="3"/>
+        <v>-8.6758895345672701E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77">
         <v>77</v>
       </c>
       <c r="B77" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.37931034482758619</v>
       </c>
       <c r="C77">
         <v>8.8174089237834694E-2</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="D77">
+        <f t="shared" si="3"/>
+        <v>-8.8174089237834694E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78">
         <v>78</v>
       </c>
       <c r="B78" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.38423645320197042</v>
       </c>
       <c r="C78">
         <v>9.1076511107837196E-2</v>
       </c>
-    </row>
-    <row r="79" spans="1:3">
+      <c r="D78">
+        <f t="shared" si="3"/>
+        <v>-9.1076511107837196E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79">
         <v>79</v>
       </c>
       <c r="B79" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.3891625615763547</v>
       </c>
       <c r="C79">
         <v>9.6552550750703306E-2</v>
       </c>
-    </row>
-    <row r="80" spans="1:3">
+      <c r="D79">
+        <f t="shared" si="3"/>
+        <v>-9.6552550750703306E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80">
         <v>80</v>
       </c>
       <c r="B80" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.39408866995073893</v>
       </c>
       <c r="C80">
         <v>0.115954207130489</v>
       </c>
-    </row>
-    <row r="81" spans="1:3">
+      <c r="D80">
+        <f t="shared" si="3"/>
+        <v>-0.115954207130489</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81">
         <v>81</v>
       </c>
       <c r="B81" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.39901477832512317</v>
       </c>
       <c r="C81">
         <v>0.14285714285714299</v>
       </c>
-    </row>
-    <row r="82" spans="1:3">
+      <c r="D81">
+        <f t="shared" si="3"/>
+        <v>-0.14285714285714299</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82">
         <v>82</v>
       </c>
       <c r="B82" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.4039408866995074</v>
       </c>
       <c r="C82">
         <v>0.16486855942696901</v>
       </c>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="D82">
+        <f t="shared" si="3"/>
+        <v>-0.16486855942696901</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83">
         <v>83</v>
       </c>
       <c r="B83" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.40886699507389163</v>
       </c>
       <c r="C83">
         <v>0.164939977965676</v>
       </c>
-    </row>
-    <row r="84" spans="1:3">
+      <c r="D83">
+        <f t="shared" si="3"/>
+        <v>-0.164939977965676</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84">
         <v>84</v>
       </c>
       <c r="B84" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.41379310344827586</v>
       </c>
       <c r="C84">
         <v>0.173931310695734</v>
       </c>
-    </row>
-    <row r="85" spans="1:3">
+      <c r="D84">
+        <f t="shared" si="3"/>
+        <v>-0.173931310695734</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85">
         <v>85</v>
       </c>
       <c r="B85" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.41871921182266009</v>
       </c>
       <c r="C85">
         <v>0.18787878787878701</v>
       </c>
-    </row>
-    <row r="86" spans="1:3">
+      <c r="D85">
+        <f t="shared" si="3"/>
+        <v>-0.18787878787878701</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86">
         <v>86</v>
       </c>
       <c r="B86" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.42364532019704432</v>
       </c>
       <c r="C86">
         <v>0.19141925774604199</v>
       </c>
-    </row>
-    <row r="87" spans="1:3">
+      <c r="D86">
+        <f t="shared" si="3"/>
+        <v>-0.19141925774604199</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87">
         <v>87</v>
       </c>
       <c r="B87" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.42857142857142855</v>
       </c>
       <c r="C87">
         <v>0.197574814883725</v>
       </c>
-    </row>
-    <row r="88" spans="1:3">
+      <c r="D87">
+        <f t="shared" si="3"/>
+        <v>-0.197574814883725</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88">
         <v>88</v>
       </c>
       <c r="B88" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.43349753694581283</v>
       </c>
       <c r="C88">
         <v>0.19999999999999901</v>
       </c>
-    </row>
-    <row r="89" spans="1:3">
+      <c r="D88">
+        <f t="shared" si="3"/>
+        <v>-0.19999999999999901</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89">
         <v>89</v>
       </c>
       <c r="B89" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.43842364532019706</v>
       </c>
       <c r="C89">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="90" spans="1:3">
+      <c r="D89">
+        <f t="shared" si="3"/>
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90">
         <v>90</v>
       </c>
       <c r="B90" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.44334975369458129</v>
       </c>
       <c r="C90">
         <v>0.20359646452525401</v>
       </c>
-    </row>
-    <row r="91" spans="1:3">
+      <c r="D90">
+        <f t="shared" si="3"/>
+        <v>-0.20359646452525401</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91">
         <v>91</v>
       </c>
       <c r="B91" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.44827586206896552</v>
       </c>
       <c r="C91">
         <v>0.21081851067789201</v>
       </c>
-    </row>
-    <row r="92" spans="1:3">
+      <c r="D91">
+        <f t="shared" si="3"/>
+        <v>-0.21081851067789201</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92">
         <v>92</v>
       </c>
       <c r="B92" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.45320197044334976</v>
       </c>
       <c r="C92">
         <v>0.21127284456119899</v>
       </c>
-    </row>
-    <row r="93" spans="1:3">
+      <c r="D92">
+        <f t="shared" si="3"/>
+        <v>-0.21127284456119899</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93">
         <v>93</v>
       </c>
       <c r="B93" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.45812807881773399</v>
       </c>
       <c r="C93">
         <v>0.21957751641341999</v>
       </c>
-    </row>
-    <row r="94" spans="1:3">
+      <c r="D93">
+        <f t="shared" si="3"/>
+        <v>-0.21957751641341999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94">
         <v>94</v>
       </c>
       <c r="B94" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.46305418719211822</v>
       </c>
       <c r="C94">
         <v>0.22360679774997899</v>
       </c>
-    </row>
-    <row r="95" spans="1:3">
+      <c r="D94">
+        <f t="shared" si="3"/>
+        <v>-0.22360679774997899</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95">
         <v>95</v>
       </c>
       <c r="B95" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.46798029556650245</v>
       </c>
       <c r="C95">
         <v>0.22360679774997899</v>
       </c>
-    </row>
-    <row r="96" spans="1:3">
+      <c r="D95">
+        <f t="shared" si="3"/>
+        <v>-0.22360679774997899</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96">
         <v>96</v>
       </c>
       <c r="B96" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.47290640394088668</v>
       </c>
       <c r="C96">
         <v>0.235004835540192</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <f t="shared" si="3"/>
+        <v>-0.235004835540192</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97">
         <v>97</v>
       </c>
       <c r="B97" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.47783251231527096</v>
       </c>
       <c r="C97">
         <v>0.25213819169574198</v>
       </c>
-    </row>
-    <row r="98" spans="1:3">
+      <c r="D97">
+        <f t="shared" si="3"/>
+        <v>-0.25213819169574198</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98">
         <v>98</v>
       </c>
       <c r="B98" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.48275862068965519</v>
       </c>
       <c r="C98">
         <v>0.25943726083138502</v>
       </c>
-    </row>
-    <row r="99" spans="1:3">
+      <c r="D98">
+        <f t="shared" si="3"/>
+        <v>-0.25943726083138502</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99">
         <v>99</v>
       </c>
       <c r="B99" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.48768472906403942</v>
       </c>
       <c r="C99">
         <v>0.27712854830933098</v>
       </c>
-    </row>
-    <row r="100" spans="1:3">
+      <c r="D99">
+        <f t="shared" si="3"/>
+        <v>-0.27712854830933098</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100">
         <v>100</v>
       </c>
       <c r="B100" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.49261083743842365</v>
       </c>
       <c r="C100">
         <v>0.27804601591240102</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <f t="shared" si="3"/>
+        <v>-0.27804601591240102</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101">
         <v>101</v>
       </c>
       <c r="B101" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.49753694581280788</v>
       </c>
       <c r="C101">
         <v>0.28836526599572798</v>
       </c>
-    </row>
-    <row r="102" spans="1:3">
+      <c r="D101">
+        <f t="shared" si="3"/>
+        <v>-0.28836526599572798</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102">
         <v>102</v>
       </c>
       <c r="B102" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.50246305418719217</v>
       </c>
       <c r="C102">
         <v>0.29112179836791502</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <f t="shared" si="3"/>
+        <v>-0.29112179836791502</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103">
         <v>103</v>
       </c>
       <c r="B103" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.5073891625615764</v>
       </c>
       <c r="C103">
         <v>0.29940656547831401</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <f t="shared" si="3"/>
+        <v>-0.29940656547831401</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104">
         <v>104</v>
       </c>
       <c r="B104" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.51231527093596063</v>
       </c>
       <c r="C104">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="105" spans="1:3">
+      <c r="D104">
+        <f t="shared" si="3"/>
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
       <c r="A105">
         <v>105</v>
       </c>
       <c r="B105" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.51724137931034486</v>
       </c>
       <c r="C105">
         <v>0.30274958939614799</v>
       </c>
-    </row>
-    <row r="106" spans="1:3">
+      <c r="D105">
+        <f t="shared" si="3"/>
+        <v>-0.30274958939614799</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
       <c r="A106">
         <v>106</v>
       </c>
       <c r="B106" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.52216748768472909</v>
       </c>
       <c r="C106">
         <v>0.30425553170226499</v>
       </c>
-    </row>
-    <row r="107" spans="1:3">
+      <c r="D106">
+        <f t="shared" si="3"/>
+        <v>-0.30425553170226499</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
       <c r="A107">
         <v>107</v>
       </c>
       <c r="B107" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.52709359605911332</v>
       </c>
       <c r="C107">
         <v>0.30779350562554603</v>
       </c>
-    </row>
-    <row r="108" spans="1:3">
+      <c r="D107">
+        <f t="shared" si="3"/>
+        <v>-0.30779350562554603</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
       <c r="A108">
         <v>108</v>
       </c>
       <c r="B108" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.53201970443349755</v>
       </c>
       <c r="C108">
         <v>0.31611088271363302</v>
       </c>
-    </row>
-    <row r="109" spans="1:3">
+      <c r="D108">
+        <f t="shared" si="3"/>
+        <v>-0.31611088271363302</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
       <c r="A109">
         <v>109</v>
       </c>
       <c r="B109" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.53694581280788178</v>
       </c>
       <c r="C109">
         <v>0.316227766016838</v>
       </c>
-    </row>
-    <row r="110" spans="1:3">
+      <c r="D109">
+        <f t="shared" si="3"/>
+        <v>-0.316227766016838</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
       <c r="A110">
         <v>110</v>
       </c>
       <c r="B110" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.54187192118226601</v>
       </c>
       <c r="C110">
         <v>0.32517785314411901</v>
       </c>
-    </row>
-    <row r="111" spans="1:3">
+      <c r="D110">
+        <f t="shared" si="3"/>
+        <v>-0.32517785314411901</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
       <c r="A111">
         <v>111</v>
       </c>
       <c r="B111" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.54679802955665024</v>
       </c>
       <c r="C111">
         <v>0.35146751167740298</v>
       </c>
-    </row>
-    <row r="112" spans="1:3">
+      <c r="D111">
+        <f t="shared" si="3"/>
+        <v>-0.35146751167740298</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
       <c r="A112">
         <v>112</v>
       </c>
       <c r="B112" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.55172413793103448</v>
       </c>
       <c r="C112">
         <v>0.35355339059327301</v>
       </c>
-    </row>
-    <row r="113" spans="1:3">
+      <c r="D112">
+        <f t="shared" si="3"/>
+        <v>-0.35355339059327301</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
       <c r="A113">
         <v>113</v>
       </c>
       <c r="B113" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.55665024630541871</v>
       </c>
       <c r="C113">
         <v>0.35642407770401102</v>
       </c>
-    </row>
-    <row r="114" spans="1:3">
+      <c r="D113">
+        <f t="shared" si="3"/>
+        <v>-0.35642407770401102</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
       <c r="A114">
         <v>114</v>
       </c>
       <c r="B114" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.56157635467980294</v>
       </c>
       <c r="C114">
         <v>0.35757575757575699</v>
       </c>
-    </row>
-    <row r="115" spans="1:3">
+      <c r="D114">
+        <f t="shared" si="3"/>
+        <v>-0.35757575757575699</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
       <c r="A115">
         <v>115</v>
       </c>
       <c r="B115" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.56650246305418717</v>
       </c>
       <c r="C115">
         <v>0.35928787857397698</v>
       </c>
-    </row>
-    <row r="116" spans="1:3">
+      <c r="D115">
+        <f t="shared" si="3"/>
+        <v>-0.35928787857397698</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
       <c r="A116">
         <v>116</v>
       </c>
       <c r="B116" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.5714285714285714</v>
       </c>
       <c r="C116">
         <v>0.35928787857397698</v>
       </c>
-    </row>
-    <row r="117" spans="1:3">
+      <c r="D116">
+        <f t="shared" si="3"/>
+        <v>-0.35928787857397698</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
       <c r="A117">
         <v>117</v>
       </c>
       <c r="B117" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57635467980295563</v>
       </c>
       <c r="C117">
         <v>0.36644601532152399</v>
       </c>
-    </row>
-    <row r="118" spans="1:3">
+      <c r="D117">
+        <f t="shared" si="3"/>
+        <v>-0.36644601532152399</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
       <c r="A118">
         <v>118</v>
       </c>
       <c r="B118" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.58128078817733986</v>
       </c>
       <c r="C118">
         <v>0.38415348299103502</v>
       </c>
-    </row>
-    <row r="119" spans="1:3">
+      <c r="D118">
+        <f t="shared" si="3"/>
+        <v>-0.38415348299103502</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
       <c r="A119">
         <v>119</v>
       </c>
       <c r="B119" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.58620689655172409</v>
       </c>
       <c r="C119">
         <v>0.39520337841945402</v>
       </c>
-    </row>
-    <row r="120" spans="1:3">
+      <c r="D119">
+        <f t="shared" si="3"/>
+        <v>-0.39520337841945402</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
       <c r="A120">
         <v>120</v>
       </c>
       <c r="B120" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.59113300492610843</v>
       </c>
       <c r="C120">
         <v>0.39999999999999902</v>
       </c>
-    </row>
-    <row r="121" spans="1:3">
+      <c r="D120">
+        <f t="shared" si="3"/>
+        <v>-0.39999999999999902</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
       <c r="A121">
         <v>121</v>
       </c>
       <c r="B121" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.59605911330049266</v>
       </c>
       <c r="C121">
         <v>0.39999999999999902</v>
       </c>
-    </row>
-    <row r="122" spans="1:3">
+      <c r="D121">
+        <f t="shared" si="3"/>
+        <v>-0.39999999999999902</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
       <c r="A122">
         <v>122</v>
       </c>
       <c r="B122" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.60098522167487689</v>
       </c>
       <c r="C122">
         <v>0.39999999999999902</v>
       </c>
-    </row>
-    <row r="123" spans="1:3">
+      <c r="D122">
+        <f t="shared" si="3"/>
+        <v>-0.39999999999999902</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
       <c r="A123">
         <v>123</v>
       </c>
       <c r="B123" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.60591133004926112</v>
       </c>
       <c r="C123">
         <v>0.40196870821962799</v>
       </c>
-    </row>
-    <row r="124" spans="1:3">
+      <c r="D123">
+        <f t="shared" si="3"/>
+        <v>-0.40196870821962799</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
       <c r="A124">
         <v>124</v>
       </c>
       <c r="B124" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.61083743842364535</v>
       </c>
       <c r="C124">
         <v>0.40768712416360497</v>
       </c>
-    </row>
-    <row r="125" spans="1:3">
+      <c r="D124">
+        <f t="shared" si="3"/>
+        <v>-0.40768712416360497</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
       <c r="A125">
         <v>125</v>
       </c>
       <c r="B125" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.61576354679802958</v>
       </c>
       <c r="C125">
         <v>0.41039134083406098</v>
       </c>
-    </row>
-    <row r="126" spans="1:3">
+      <c r="D125">
+        <f t="shared" si="3"/>
+        <v>-0.41039134083406098</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
       <c r="A126">
         <v>126</v>
       </c>
       <c r="B126" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.62068965517241381</v>
       </c>
       <c r="C126">
         <v>0.41039134083406098</v>
       </c>
-    </row>
-    <row r="127" spans="1:3">
+      <c r="D126">
+        <f t="shared" si="3"/>
+        <v>-0.41039134083406098</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
       <c r="A127">
         <v>127</v>
       </c>
       <c r="B127" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.62561576354679804</v>
       </c>
       <c r="C127">
         <v>0.411055997361713</v>
       </c>
-    </row>
-    <row r="128" spans="1:3">
+      <c r="D127">
+        <f t="shared" si="3"/>
+        <v>-0.411055997361713</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
       <c r="A128">
         <v>128</v>
       </c>
       <c r="B128" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.63054187192118227</v>
       </c>
       <c r="C128">
         <v>0.416443419194297</v>
       </c>
-    </row>
-    <row r="129" spans="1:3">
+      <c r="D128">
+        <f t="shared" si="3"/>
+        <v>-0.416443419194297</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
       <c r="A129">
         <v>129</v>
       </c>
       <c r="B129" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.6354679802955665</v>
       </c>
       <c r="C129">
         <v>0.42669300655412901</v>
       </c>
-    </row>
-    <row r="130" spans="1:3">
+      <c r="D129">
+        <f t="shared" si="3"/>
+        <v>-0.42669300655412901</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
       <c r="A130">
         <v>130</v>
       </c>
       <c r="B130" s="8">
-        <f t="shared" ref="B130:B193" si="2">A130/203</f>
+        <f t="shared" ref="B130:B193" si="4">A130/203</f>
         <v>0.64039408866995073</v>
       </c>
       <c r="C130">
         <v>0.43333333333333302</v>
       </c>
-    </row>
-    <row r="131" spans="1:3">
+      <c r="D130">
+        <f t="shared" ref="D130:D193" si="5">-1*C130</f>
+        <v>-0.43333333333333302</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
       <c r="A131">
         <v>131</v>
       </c>
       <c r="B131" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.64532019704433496</v>
       </c>
       <c r="C131">
         <v>0.43915503282683999</v>
       </c>
-    </row>
-    <row r="132" spans="1:3">
+      <c r="D131">
+        <f t="shared" si="5"/>
+        <v>-0.43915503282683999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
       <c r="A132">
         <v>132</v>
       </c>
       <c r="B132" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.65024630541871919</v>
       </c>
       <c r="C132">
         <v>0.45046873134777898</v>
       </c>
-    </row>
-    <row r="133" spans="1:3">
+      <c r="D132">
+        <f t="shared" si="5"/>
+        <v>-0.45046873134777898</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
       <c r="A133">
         <v>133</v>
       </c>
       <c r="B133" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.65517241379310343</v>
       </c>
       <c r="C133">
         <v>0.46025507481564698</v>
       </c>
-    </row>
-    <row r="134" spans="1:3">
+      <c r="D133">
+        <f t="shared" si="5"/>
+        <v>-0.46025507481564698</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
       <c r="A134">
         <v>134</v>
       </c>
       <c r="B134" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.66009852216748766</v>
       </c>
       <c r="C134">
         <v>0.46381682852195799</v>
       </c>
-    </row>
-    <row r="135" spans="1:3">
+      <c r="D134">
+        <f t="shared" si="5"/>
+        <v>-0.46381682852195799</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
       <c r="A135">
         <v>135</v>
       </c>
       <c r="B135" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.66502463054187189</v>
       </c>
       <c r="C135">
         <v>0.484881137876426</v>
       </c>
-    </row>
-    <row r="136" spans="1:3">
+      <c r="D135">
+        <f t="shared" si="5"/>
+        <v>-0.484881137876426</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
       <c r="A136">
         <v>136</v>
       </c>
       <c r="B136" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.66995073891625612</v>
       </c>
       <c r="C136">
         <v>0.48795003647426599</v>
       </c>
-    </row>
-    <row r="137" spans="1:3">
+      <c r="D136">
+        <f t="shared" si="5"/>
+        <v>-0.48795003647426599</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
       <c r="A137">
         <v>137</v>
       </c>
       <c r="B137" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.67487684729064035</v>
       </c>
       <c r="C137">
         <v>0.49090909090909002</v>
       </c>
-    </row>
-    <row r="138" spans="1:3">
+      <c r="D137">
+        <f t="shared" si="5"/>
+        <v>-0.49090909090909002</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
       <c r="A138">
         <v>138</v>
       </c>
       <c r="B138" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.67980295566502458</v>
       </c>
       <c r="C138">
         <v>0.491689171894441</v>
       </c>
-    </row>
-    <row r="139" spans="1:3">
+      <c r="D138">
+        <f t="shared" si="5"/>
+        <v>-0.491689171894441</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
       <c r="A139">
         <v>139</v>
       </c>
       <c r="B139" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.68472906403940892</v>
       </c>
       <c r="C139">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="140" spans="1:3">
+      <c r="D139">
+        <f t="shared" si="5"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
       <c r="A140">
         <v>140</v>
       </c>
       <c r="B140" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.68965517241379315</v>
       </c>
       <c r="C140">
         <v>0.50452497910951299</v>
       </c>
-    </row>
-    <row r="141" spans="1:3">
+      <c r="D140">
+        <f t="shared" si="5"/>
+        <v>-0.50452497910951299</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
       <c r="A141">
         <v>141</v>
       </c>
       <c r="B141" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.69458128078817738</v>
       </c>
       <c r="C141">
         <v>0.51486979819261902</v>
       </c>
-    </row>
-    <row r="142" spans="1:3">
+      <c r="D141">
+        <f t="shared" si="5"/>
+        <v>-0.51486979819261902</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
       <c r="A142">
         <v>142</v>
       </c>
       <c r="B142" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.69950738916256161</v>
       </c>
       <c r="C142">
         <v>0.51610022961107804</v>
       </c>
-    </row>
-    <row r="143" spans="1:3">
+      <c r="D142">
+        <f t="shared" si="5"/>
+        <v>-0.51610022961107804</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
       <c r="A143">
         <v>143</v>
       </c>
       <c r="B143" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.70443349753694584</v>
       </c>
       <c r="C143">
         <v>0.54285714285714204</v>
       </c>
-    </row>
-    <row r="144" spans="1:3">
+      <c r="D143">
+        <f t="shared" si="5"/>
+        <v>-0.54285714285714204</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
       <c r="A144">
         <v>144</v>
       </c>
       <c r="B144" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.70935960591133007</v>
       </c>
       <c r="C144">
         <v>0.56428809364683397</v>
       </c>
-    </row>
-    <row r="145" spans="1:3">
+      <c r="D144">
+        <f t="shared" si="5"/>
+        <v>-0.56428809364683397</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
       <c r="A145">
         <v>145</v>
       </c>
       <c r="B145" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.7142857142857143</v>
       </c>
       <c r="C145">
         <v>0.57138004452334701</v>
       </c>
-    </row>
-    <row r="146" spans="1:3">
+      <c r="D145">
+        <f t="shared" si="5"/>
+        <v>-0.57138004452334701</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
       <c r="A146">
         <v>146</v>
       </c>
       <c r="B146" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.71921182266009853</v>
       </c>
       <c r="C146">
         <v>0.57142857142857095</v>
       </c>
-    </row>
-    <row r="147" spans="1:3">
+      <c r="D146">
+        <f t="shared" si="5"/>
+        <v>-0.57142857142857095</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
       <c r="A147">
         <v>147</v>
       </c>
       <c r="B147" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.72413793103448276</v>
       </c>
       <c r="C147">
         <v>0.57145550464431105</v>
       </c>
-    </row>
-    <row r="148" spans="1:3">
+      <c r="D147">
+        <f t="shared" si="5"/>
+        <v>-0.57145550464431105</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
       <c r="A148">
         <v>148</v>
       </c>
       <c r="B148" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.72906403940886699</v>
       </c>
       <c r="C148">
         <v>0.57575757575757502</v>
       </c>
-    </row>
-    <row r="149" spans="1:3">
+      <c r="D148">
+        <f t="shared" si="5"/>
+        <v>-0.57575757575757502</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
       <c r="A149">
         <v>149</v>
       </c>
       <c r="B149" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.73399014778325122</v>
       </c>
       <c r="C149">
         <v>0.57635397807768796</v>
       </c>
-    </row>
-    <row r="150" spans="1:3">
+      <c r="D149">
+        <f t="shared" si="5"/>
+        <v>-0.57635397807768796</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
       <c r="A150">
         <v>150</v>
       </c>
       <c r="B150" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.73891625615763545</v>
       </c>
       <c r="C150">
         <v>0.61558701125109205</v>
       </c>
-    </row>
-    <row r="151" spans="1:3">
+      <c r="D150">
+        <f t="shared" si="5"/>
+        <v>-0.61558701125109205</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
       <c r="A151">
         <v>151</v>
       </c>
       <c r="B151" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.74384236453201968</v>
       </c>
       <c r="C151">
         <v>0.61904761904761896</v>
       </c>
-    </row>
-    <row r="152" spans="1:3">
+      <c r="D151">
+        <f t="shared" si="5"/>
+        <v>-0.61904761904761896</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
       <c r="A152">
         <v>152</v>
       </c>
       <c r="B152" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.74876847290640391</v>
       </c>
       <c r="C152">
         <v>0.63333333333333297</v>
       </c>
-    </row>
-    <row r="153" spans="1:3">
+      <c r="D152">
+        <f t="shared" si="5"/>
+        <v>-0.63333333333333297</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
       <c r="A153">
         <v>153</v>
       </c>
       <c r="B153" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.75369458128078815</v>
       </c>
       <c r="C153">
         <v>0.66688592885535003</v>
       </c>
-    </row>
-    <row r="154" spans="1:3">
+      <c r="D153">
+        <f t="shared" si="5"/>
+        <v>-0.66688592885535003</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
       <c r="A154">
         <v>154</v>
       </c>
       <c r="B154" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.75862068965517238</v>
       </c>
       <c r="C154">
         <v>0.66688592885535003</v>
       </c>
-    </row>
-    <row r="155" spans="1:3">
+      <c r="D154">
+        <f t="shared" si="5"/>
+        <v>-0.66688592885535003</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
       <c r="A155">
         <v>155</v>
       </c>
       <c r="B155" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.76354679802955661</v>
       </c>
       <c r="C155">
         <v>0.66688592885535003</v>
       </c>
-    </row>
-    <row r="156" spans="1:3">
+      <c r="D155">
+        <f t="shared" si="5"/>
+        <v>-0.66688592885535003</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
       <c r="A156">
         <v>156</v>
       </c>
       <c r="B156" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.76847290640394084</v>
       </c>
       <c r="C156">
         <v>0.67229264545281398</v>
       </c>
-    </row>
-    <row r="157" spans="1:3">
+      <c r="D156">
+        <f t="shared" si="5"/>
+        <v>-0.67229264545281398</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
       <c r="A157">
         <v>157</v>
       </c>
       <c r="B157" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.77339901477832518</v>
       </c>
       <c r="C157">
         <v>0.679510674288195</v>
       </c>
-    </row>
-    <row r="158" spans="1:3">
+      <c r="D157">
+        <f t="shared" si="5"/>
+        <v>-0.679510674288195</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
       <c r="A158">
         <v>158</v>
       </c>
       <c r="B158" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.77832512315270941</v>
       </c>
       <c r="C158">
         <v>0.69825325182675302</v>
       </c>
-    </row>
-    <row r="159" spans="1:3">
+      <c r="D158">
+        <f t="shared" si="5"/>
+        <v>-0.69825325182675302</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
       <c r="A159">
         <v>159</v>
       </c>
       <c r="B159" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.78325123152709364</v>
       </c>
       <c r="C159">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="160" spans="1:3">
+      <c r="D159">
+        <f t="shared" si="5"/>
+        <v>-0.7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
       <c r="A160">
         <v>160</v>
       </c>
       <c r="B160" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.78817733990147787</v>
       </c>
       <c r="C160">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="161" spans="1:3">
+      <c r="D160">
+        <f t="shared" si="5"/>
+        <v>-0.7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
       <c r="A161">
         <v>161</v>
       </c>
       <c r="B161" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.7931034482758621</v>
       </c>
       <c r="C161">
         <v>0.70659949452882198</v>
       </c>
-    </row>
-    <row r="162" spans="1:3">
+      <c r="D161">
+        <f t="shared" si="5"/>
+        <v>-0.70659949452882198</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
       <c r="A162">
         <v>162</v>
       </c>
       <c r="B162" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.79802955665024633</v>
       </c>
       <c r="C162">
         <v>0.73786478737262096</v>
       </c>
-    </row>
-    <row r="163" spans="1:3">
+      <c r="D162">
+        <f t="shared" si="5"/>
+        <v>-0.73786478737262096</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
       <c r="A163">
         <v>163</v>
       </c>
       <c r="B163" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.80295566502463056</v>
       </c>
       <c r="C163">
         <v>0.73786478737262096</v>
       </c>
-    </row>
-    <row r="164" spans="1:3">
+      <c r="D163">
+        <f t="shared" si="5"/>
+        <v>-0.73786478737262096</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
       <c r="A164">
         <v>164</v>
       </c>
       <c r="B164" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.80788177339901479</v>
       </c>
       <c r="C164">
         <v>0.73786478737262096</v>
       </c>
-    </row>
-    <row r="165" spans="1:3">
+      <c r="D164">
+        <f t="shared" si="5"/>
+        <v>-0.73786478737262096</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
       <c r="A165">
         <v>165</v>
       </c>
       <c r="B165" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.81280788177339902</v>
       </c>
       <c r="C165">
         <v>0.74545454545454504</v>
       </c>
-    </row>
-    <row r="166" spans="1:3">
+      <c r="D165">
+        <f t="shared" si="5"/>
+        <v>-0.74545454545454504</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
       <c r="A166">
         <v>166</v>
       </c>
       <c r="B166" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.81773399014778325</v>
       </c>
       <c r="C166">
         <v>0.74586985398289096</v>
       </c>
-    </row>
-    <row r="167" spans="1:3">
+      <c r="D166">
+        <f t="shared" si="5"/>
+        <v>-0.74586985398289096</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
       <c r="A167">
         <v>167</v>
       </c>
       <c r="B167" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.82266009852216748</v>
       </c>
       <c r="C167">
         <v>0.75897092589864501</v>
       </c>
-    </row>
-    <row r="168" spans="1:3">
+      <c r="D167">
+        <f t="shared" si="5"/>
+        <v>-0.75897092589864501</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
       <c r="A168">
         <v>168</v>
       </c>
       <c r="B168" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.82758620689655171</v>
       </c>
       <c r="C168">
         <v>0.77459666924148296</v>
       </c>
-    </row>
-    <row r="169" spans="1:3">
+      <c r="D168">
+        <f t="shared" si="5"/>
+        <v>-0.77459666924148296</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
       <c r="A169">
         <v>169</v>
       </c>
       <c r="B169" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.83251231527093594</v>
       </c>
       <c r="C169">
         <v>0.78334945180063997</v>
       </c>
-    </row>
-    <row r="170" spans="1:3">
+      <c r="D169">
+        <f t="shared" si="5"/>
+        <v>-0.78334945180063997</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
       <c r="A170">
         <v>170</v>
       </c>
       <c r="B170" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.83743842364532017</v>
       </c>
       <c r="C170">
         <v>0.78441558441558401</v>
       </c>
-    </row>
-    <row r="171" spans="1:3">
+      <c r="D170">
+        <f t="shared" si="5"/>
+        <v>-0.78441558441558401</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
       <c r="A171">
         <v>171</v>
       </c>
       <c r="B171" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.8423645320197044</v>
       </c>
       <c r="C171">
         <v>0.79056941504209399</v>
       </c>
-    </row>
-    <row r="172" spans="1:3">
+      <c r="D171">
+        <f t="shared" si="5"/>
+        <v>-0.79056941504209399</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
       <c r="A172">
         <v>172</v>
       </c>
       <c r="B172" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.84729064039408863</v>
       </c>
       <c r="C172">
         <v>0.79056941504209399</v>
       </c>
-    </row>
-    <row r="173" spans="1:3">
+      <c r="D172">
+        <f t="shared" si="5"/>
+        <v>-0.79056941504209399</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
       <c r="A173">
         <v>173</v>
       </c>
       <c r="B173" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.85221674876847286</v>
       </c>
       <c r="C173">
         <v>0.79056941504209399</v>
       </c>
-    </row>
-    <row r="174" spans="1:3">
+      <c r="D173">
+        <f t="shared" si="5"/>
+        <v>-0.79056941504209399</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
       <c r="A174">
         <v>174</v>
       </c>
       <c r="B174" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.8571428571428571</v>
       </c>
       <c r="C174">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="175" spans="1:3">
+      <c r="D174">
+        <f t="shared" si="5"/>
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
       <c r="A175">
         <v>175</v>
       </c>
       <c r="B175" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.86206896551724133</v>
       </c>
       <c r="C175">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="176" spans="1:3">
+      <c r="D175">
+        <f t="shared" si="5"/>
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
       <c r="A176">
         <v>176</v>
       </c>
       <c r="B176" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.86699507389162567</v>
       </c>
       <c r="C176">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="177" spans="1:3">
+      <c r="D176">
+        <f t="shared" si="5"/>
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
       <c r="A177">
         <v>177</v>
       </c>
       <c r="B177" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.8719211822660099</v>
       </c>
       <c r="C177">
         <v>0.80511756018253899</v>
       </c>
-    </row>
-    <row r="178" spans="1:3">
+      <c r="D177">
+        <f t="shared" si="5"/>
+        <v>-0.80511756018253899</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
       <c r="A178">
         <v>178</v>
       </c>
       <c r="B178" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.87684729064039413</v>
       </c>
       <c r="C178">
         <v>0.80952380952380898</v>
       </c>
-    </row>
-    <row r="179" spans="1:3">
+      <c r="D178">
+        <f t="shared" si="5"/>
+        <v>-0.80952380952380898</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
       <c r="A179">
         <v>179</v>
       </c>
       <c r="B179" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.88177339901477836</v>
       </c>
       <c r="C179">
         <v>0.811679449913427</v>
       </c>
-    </row>
-    <row r="180" spans="1:3">
+      <c r="D179">
+        <f t="shared" si="5"/>
+        <v>-0.811679449913427</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
       <c r="A180">
         <v>180</v>
       </c>
       <c r="B180" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.88669950738916259</v>
       </c>
       <c r="C180">
         <v>0.84515425472851602</v>
       </c>
-    </row>
-    <row r="181" spans="1:3">
+      <c r="D180">
+        <f t="shared" si="5"/>
+        <v>-0.84515425472851602</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
       <c r="A181">
         <v>181</v>
       </c>
       <c r="B181" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.89162561576354682</v>
       </c>
       <c r="C181">
         <v>0.85714285714285698</v>
       </c>
-    </row>
-    <row r="182" spans="1:3">
+      <c r="D181">
+        <f t="shared" si="5"/>
+        <v>-0.85714285714285698</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
       <c r="A182">
         <v>182</v>
       </c>
       <c r="B182" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.89655172413793105</v>
       </c>
       <c r="C182">
         <v>0.86602540378443804</v>
       </c>
-    </row>
-    <row r="183" spans="1:3">
+      <c r="D182">
+        <f t="shared" si="5"/>
+        <v>-0.86602540378443804</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
       <c r="A183">
         <v>183</v>
       </c>
       <c r="B183" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.90147783251231528</v>
       </c>
       <c r="C183">
         <v>0.86602540378443804</v>
       </c>
-    </row>
-    <row r="184" spans="1:3">
+      <c r="D183">
+        <f t="shared" si="5"/>
+        <v>-0.86602540378443804</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
       <c r="A184">
         <v>184</v>
       </c>
       <c r="B184" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.90640394088669951</v>
       </c>
       <c r="C184">
         <v>0.86602540378443804</v>
       </c>
-    </row>
-    <row r="185" spans="1:3">
+      <c r="D184">
+        <f t="shared" si="5"/>
+        <v>-0.86602540378443804</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
       <c r="A185">
         <v>185</v>
       </c>
       <c r="B185" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.91133004926108374</v>
       </c>
       <c r="C185">
         <v>0.86602540378443804</v>
       </c>
-    </row>
-    <row r="186" spans="1:3">
+      <c r="D185">
+        <f t="shared" si="5"/>
+        <v>-0.86602540378443804</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
       <c r="A186">
         <v>186</v>
       </c>
       <c r="B186" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.91625615763546797</v>
       </c>
       <c r="C186">
         <v>0.87208159927238005</v>
       </c>
-    </row>
-    <row r="187" spans="1:3">
+      <c r="D186">
+        <f t="shared" si="5"/>
+        <v>-0.87208159927238005</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
       <c r="A187">
         <v>187</v>
       </c>
       <c r="B187" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.9211822660098522</v>
       </c>
       <c r="C187">
         <v>0.87958191419917997</v>
       </c>
-    </row>
-    <row r="188" spans="1:3">
+      <c r="D187">
+        <f t="shared" si="5"/>
+        <v>-0.87958191419917997</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
       <c r="A188">
         <v>188</v>
       </c>
       <c r="B188" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.92610837438423643</v>
       </c>
       <c r="C188">
         <v>0.88040627404242799</v>
       </c>
-    </row>
-    <row r="189" spans="1:3">
+      <c r="D188">
+        <f t="shared" si="5"/>
+        <v>-0.88040627404242799</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
       <c r="A189">
         <v>189</v>
       </c>
       <c r="B189" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.93103448275862066</v>
       </c>
       <c r="C189">
         <v>0.88291871344164696</v>
       </c>
-    </row>
-    <row r="190" spans="1:3">
+      <c r="D189">
+        <f t="shared" si="5"/>
+        <v>-0.88291871344164696</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
       <c r="A190">
         <v>190</v>
       </c>
       <c r="B190" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.93596059113300489</v>
       </c>
       <c r="C190">
         <v>0.88571428571428501</v>
       </c>
-    </row>
-    <row r="191" spans="1:3">
+      <c r="D190">
+        <f t="shared" si="5"/>
+        <v>-0.88571428571428501</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
       <c r="A191">
         <v>191</v>
       </c>
       <c r="B191" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.94088669950738912</v>
       </c>
       <c r="C191">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="192" spans="1:3">
+      <c r="D191">
+        <f t="shared" si="5"/>
+        <v>-0.9</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
       <c r="A192">
         <v>192</v>
       </c>
       <c r="B192" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.94581280788177335</v>
       </c>
       <c r="C192">
         <v>0.94285714285714195</v>
       </c>
-    </row>
-    <row r="193" spans="1:3">
+      <c r="D192">
+        <f t="shared" si="5"/>
+        <v>-0.94285714285714195</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
       <c r="A193">
         <v>193</v>
       </c>
       <c r="B193" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.95073891625615758</v>
       </c>
       <c r="C193">
         <v>0.94868329805051299</v>
       </c>
-    </row>
-    <row r="194" spans="1:3">
+      <c r="D193">
+        <f t="shared" si="5"/>
+        <v>-0.94868329805051299</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
       <c r="A194">
         <v>194</v>
       </c>
       <c r="B194" s="8">
-        <f t="shared" ref="B194:B203" si="3">A194/203</f>
+        <f t="shared" ref="B194:B203" si="6">A194/203</f>
         <v>0.95566502463054193</v>
       </c>
       <c r="C194">
         <v>0.954313515420527</v>
       </c>
-    </row>
-    <row r="195" spans="1:3">
+      <c r="D194">
+        <f t="shared" ref="D194:D203" si="7">-1*C194</f>
+        <v>-0.954313515420527</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
       <c r="A195">
         <v>195</v>
       </c>
       <c r="B195" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.96059113300492616</v>
       </c>
       <c r="C195">
         <v>0.98561076060916197</v>
       </c>
-    </row>
-    <row r="196" spans="1:3">
+      <c r="D195">
+        <f t="shared" si="7"/>
+        <v>-0.98561076060916197</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
       <c r="A196">
         <v>196</v>
       </c>
       <c r="B196" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.96551724137931039</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="1:3">
+      <c r="D196">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
       <c r="A197">
         <v>197</v>
       </c>
       <c r="B197" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.97044334975369462</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:3">
+      <c r="D197">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
       <c r="A198">
         <v>198</v>
       </c>
       <c r="B198" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.97536945812807885</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
-    </row>
-    <row r="199" spans="1:3">
+      <c r="D198">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
       <c r="A199">
         <v>199</v>
       </c>
       <c r="B199" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.98029556650246308</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="1:3">
+      <c r="D199">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
       <c r="A200">
         <v>200</v>
       </c>
       <c r="B200" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.98522167487684731</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:3">
+      <c r="D200">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
       <c r="A201">
         <v>201</v>
       </c>
       <c r="B201" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.99014778325123154</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
-    </row>
-    <row r="202" spans="1:3">
+      <c r="D201">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
       <c r="A202">
         <v>202</v>
       </c>
       <c r="B202" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.99507389162561577</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
-    </row>
-    <row r="203" spans="1:3">
+      <c r="D202">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
       <c r="A203">
         <v>203</v>
       </c>
       <c r="B203" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C203">
         <v>1</v>
+      </c>
+      <c r="D203">
+        <f t="shared" si="7"/>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
